--- a/biology/Médecine/Membrane_synoviale/Membrane_synoviale.xlsx
+++ b/biology/Médecine/Membrane_synoviale/Membrane_synoviale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La membrane synoviale (ou synoviale) est la membrane séreuse qui tapisse la face interne de la capsule articulaire d'une jointure synoviale.
 Elle s'insère sur le pourtour des surfaces articulaires cartilagineuses de l'articulation et limite la cavité articulaire.
@@ -512,17 +524,16 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La membrane synoviale est composée de 2 couches :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La membrane synoviale est composée de 2 couches :
 l'intima, au contact du liquide synovial formée de cellules mononucléées juxtaposées : les synoviocytes.
 la sous-intima formée de tissu conjonctif riche en fibres collagènes.
 Elle peut former des plis synoviaux délimitant des culs de sac dans la cavité articulaire.
 Elle peut également présenter des villosités synoviales.
-Synoviocytes
-Il existe plusieurs types de synoviocytes :
-les synoviocytes macrophagiques, ou synoviocytes de type A,
-les synoviocytes fibroblastiques, ou synoviocytes de type B produisant l'acide hyaluronique du liquide synovial..</t>
+</t>
         </is>
       </c>
     </row>
@@ -547,12 +558,52 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synoviocytes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Il existe plusieurs types de synoviocytes :
+les synoviocytes macrophagiques, ou synoviocytes de type A,
+les synoviocytes fibroblastiques, ou synoviocytes de type B produisant l'acide hyaluronique du liquide synovial..</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Membrane_synoviale</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Membrane_synoviale</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Anatomie fonctionnelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans de nombreuses articulations synoviales, la membrane synoviale accumule du tissu adipeux nommé corps adipeux. Le corps adipeux infrapatellaire du genou en est un exemple. Les cellules de la membrane synoviale, les synoviocytes, ne sont pas fréquemment visualisées dans le liquide synovial, mais jouent un rôle primordial dans la fonction de la barrière hémo-synoviale. Elles seraient les premières à phagocyter les cristaux et à déclencher le processus inflammatoire[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans de nombreuses articulations synoviales, la membrane synoviale accumule du tissu adipeux nommé corps adipeux. Le corps adipeux infrapatellaire du genou en est un exemple. Les cellules de la membrane synoviale, les synoviocytes, ne sont pas fréquemment visualisées dans le liquide synovial, mais jouent un rôle primordial dans la fonction de la barrière hémo-synoviale. Elles seraient les premières à phagocyter les cristaux et à déclencher le processus inflammatoire.
 </t>
         </is>
       </c>
